--- a/cmip6/citations/cmip6_cas_citations.xlsx
+++ b/cmip6/citations/cmip6_cas_citations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/models/templates_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/citations/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9EE97-499E-614E-B69C-D7B32C06EAAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B9249-E2A6-2448-9F22-74A155B1A05C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -53,77 +53,40 @@
     <t>Identifier / Mnemonic *</t>
   </si>
   <si>
-    <t>Title *</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Authors *</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>Abstract *</t>
-  </si>
-  <si>
-    <t>SOLAR-IRRADIANCE</t>
-  </si>
-  <si>
-    <t>Solar irradiance reduction via climate engineering-impact of different techniques on the energy balance and the hydrological cycle</t>
-  </si>
-  <si>
-    <t>Assesses the climate impacts of different techniques of solar radiation management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niemeier, U., H. Schmidt, K. Alterskjær, and J. E. Kristjánsson (2013), Solar irradiance reduction via climate engineering-impact of different techniques on the energy balance and the hydrological cycle, J. Geophys. Res., 118, 11905-11917 </t>
-  </si>
-  <si>
-    <t>http://onlinelibrary.wiley.com/doi/10.1002/2013JD020445/abstract</t>
-  </si>
-  <si>
     <t>10.1002/2013JD020445</t>
   </si>
   <si>
-    <t>Different techniques of solar radiation management (SRM) have been suggested to counteract global warming, among them the injection of sulfur into the stratosphere, mirrors in space, and marine cloud brightening through artificial emissions of sea salt. This study focuses on to what extent climate impacts of these three methods would be different. We present results from simulations with an Earth system model where the forcing from the increase of greenhouse gases in a transient scenario (RCP4.5) was balanced over 50 years by SRM. While global mean temperature increases slightly due to the inertia of the climate system and evolves similar with time for the different SRM methods, responses of global mean precipitation differ considerably among the methods. The hydrological sensitivity is decreased by SRM, most prominently for aerosol-based techniques, sea salt emissions, and injection of sulfate into the stratosphere. Reasons for these differences are discussed through an analysis of the surface energy budget. Furthermore, effects on large-scale tropical dynamics and on regional climate are discussed.</t>
+    <t>"@article{
+  title = {Unidata's Common Data Model Mapping to the ISO 19123 Data Model},
+  journal = {Earth Science Informatics},
+  author = {Nativi, Stefano and Caron, John and Domenico, Ben and Bigagli, Lorenzo},
+  year = {2008},
+}"</t>
   </si>
   <si>
-    <t>TIMESLICE-EXPERIMENTS</t>
+    <t>BibTex</t>
   </si>
   <si>
-    <t>Regional climate changes as simulated in time-slice experiments</t>
+    <t>http://journal.com/873487234</t>
   </si>
   <si>
-    <t>Timeslice experiments with CO2 at present levels and at time of CO2 doubling and tripling</t>
+    <t>Nativi_2008</t>
   </si>
   <si>
-    <t>Cubasch, U., J. Waszkewitz, G. Hegerl, and J. Perlwitz (1995), Regional climate changes as simulated in time-slice experiments, Climatic Change, 31, 372-304</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/article/10.1007/BF01095150</t>
-  </si>
-  <si>
-    <t>10.1007/BF01095150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three 30 year long simulations have been performed with a T42 atmosphere model, in which the sea-surface temperature (SST) and sea-ice distribution have been taken from a transient climate change experiment with a T21 global coupled ocean-atmosphere model. In this so-called time-slice experiment, the SST values (and the greenhouse gas concentration) were taken at present time CO2 level, at the time of CO2 doubling and tripling.
-The annual cycle of temperature and precipitation has been studied over the IPCC regions and has been compared with observations. Additionally the combination of temperature and precipitation change has been analysed. Further parameters investigated include the difference between daily minimum and maximum temperature, the rainfall intensity and the length of droughts.
-While the regional simulation of the annual cycle of the near surface temperature is quite realistic with deviations rarely exceeding 3 K, the precipitation is reproduced to a much smaller degree of accuracy.
-The changes in temperature at the time of CO2 doubling amount to only 30–40% of those at the 3 * CO2 level and show hardly any seasonal variation, contrary to the 3 * CO2 experiment. The comparatively small response to the CO2 doubling can be attributed to the cold-start of the simulation, from which the SST has been extracted. The strong change in the seasonality cannot be explained by internal fluctuations and cold start alone, but has to be caused by feedback mechanisms. Due to the delay in warming caused by the transient experiment, from which the SST has been derived, the 3 * CO2 experiment can be compared to the CO2 doubling studies performed with mixed-layer models.
-The precipitation change does not display a clear signal. However, an increase of the rain intensity and of longer dry periods is simulated in many regions of the globe.
-The changes in these parameters as well as the combination of temperature- and precipitation change and the changes in the daily temperature range give valuable hints, in which regions observational studies should be intensified and under which aspects the observational data should be evaluated.
-</t>
+    <t>Long name for internal use (unarchived)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -177,10 +140,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -203,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -288,17 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="13"/>
       </left>
@@ -332,7 +293,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -373,34 +334,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,32 +343,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV6"/>
+  <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,12 +1590,19 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1674,21 +1621,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:IP56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="10" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="10" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1696,464 +1643,656 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:250" s="27" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="296" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+      <c r="BR3" s="26"/>
+      <c r="BS3" s="26"/>
+      <c r="BT3" s="26"/>
+      <c r="BU3" s="26"/>
+      <c r="BV3" s="26"/>
+      <c r="BW3" s="26"/>
+      <c r="BX3" s="26"/>
+      <c r="BY3" s="26"/>
+      <c r="BZ3" s="26"/>
+      <c r="CA3" s="26"/>
+      <c r="CB3" s="26"/>
+      <c r="CC3" s="26"/>
+      <c r="CD3" s="26"/>
+      <c r="CE3" s="26"/>
+      <c r="CF3" s="26"/>
+      <c r="CG3" s="26"/>
+      <c r="CH3" s="26"/>
+      <c r="CI3" s="26"/>
+      <c r="CJ3" s="26"/>
+      <c r="CK3" s="26"/>
+      <c r="CL3" s="26"/>
+      <c r="CM3" s="26"/>
+      <c r="CN3" s="26"/>
+      <c r="CO3" s="26"/>
+      <c r="CP3" s="26"/>
+      <c r="CQ3" s="26"/>
+      <c r="CR3" s="26"/>
+      <c r="CS3" s="26"/>
+      <c r="CT3" s="26"/>
+      <c r="CU3" s="26"/>
+      <c r="CV3" s="26"/>
+      <c r="CW3" s="26"/>
+      <c r="CX3" s="26"/>
+      <c r="CY3" s="26"/>
+      <c r="CZ3" s="26"/>
+      <c r="DA3" s="26"/>
+      <c r="DB3" s="26"/>
+      <c r="DC3" s="26"/>
+      <c r="DD3" s="26"/>
+      <c r="DE3" s="26"/>
+      <c r="DF3" s="26"/>
+      <c r="DG3" s="26"/>
+      <c r="DH3" s="26"/>
+      <c r="DI3" s="26"/>
+      <c r="DJ3" s="26"/>
+      <c r="DK3" s="26"/>
+      <c r="DL3" s="26"/>
+      <c r="DM3" s="26"/>
+      <c r="DN3" s="26"/>
+      <c r="DO3" s="26"/>
+      <c r="DP3" s="26"/>
+      <c r="DQ3" s="26"/>
+      <c r="DR3" s="26"/>
+      <c r="DS3" s="26"/>
+      <c r="DT3" s="26"/>
+      <c r="DU3" s="26"/>
+      <c r="DV3" s="26"/>
+      <c r="DW3" s="26"/>
+      <c r="DX3" s="26"/>
+      <c r="DY3" s="26"/>
+      <c r="DZ3" s="26"/>
+      <c r="EA3" s="26"/>
+      <c r="EB3" s="26"/>
+      <c r="EC3" s="26"/>
+      <c r="ED3" s="26"/>
+      <c r="EE3" s="26"/>
+      <c r="EF3" s="26"/>
+      <c r="EG3" s="26"/>
+      <c r="EH3" s="26"/>
+      <c r="EI3" s="26"/>
+      <c r="EJ3" s="26"/>
+      <c r="EK3" s="26"/>
+      <c r="EL3" s="26"/>
+      <c r="EM3" s="26"/>
+      <c r="EN3" s="26"/>
+      <c r="EO3" s="26"/>
+      <c r="EP3" s="26"/>
+      <c r="EQ3" s="26"/>
+      <c r="ER3" s="26"/>
+      <c r="ES3" s="26"/>
+      <c r="ET3" s="26"/>
+      <c r="EU3" s="26"/>
+      <c r="EV3" s="26"/>
+      <c r="EW3" s="26"/>
+      <c r="EX3" s="26"/>
+      <c r="EY3" s="26"/>
+      <c r="EZ3" s="26"/>
+      <c r="FA3" s="26"/>
+      <c r="FB3" s="26"/>
+      <c r="FC3" s="26"/>
+      <c r="FD3" s="26"/>
+      <c r="FE3" s="26"/>
+      <c r="FF3" s="26"/>
+      <c r="FG3" s="26"/>
+      <c r="FH3" s="26"/>
+      <c r="FI3" s="26"/>
+      <c r="FJ3" s="26"/>
+      <c r="FK3" s="26"/>
+      <c r="FL3" s="26"/>
+      <c r="FM3" s="26"/>
+      <c r="FN3" s="26"/>
+      <c r="FO3" s="26"/>
+      <c r="FP3" s="26"/>
+      <c r="FQ3" s="26"/>
+      <c r="FR3" s="26"/>
+      <c r="FS3" s="26"/>
+      <c r="FT3" s="26"/>
+      <c r="FU3" s="26"/>
+      <c r="FV3" s="26"/>
+      <c r="FW3" s="26"/>
+      <c r="FX3" s="26"/>
+      <c r="FY3" s="26"/>
+      <c r="FZ3" s="26"/>
+      <c r="GA3" s="26"/>
+      <c r="GB3" s="26"/>
+      <c r="GC3" s="26"/>
+      <c r="GD3" s="26"/>
+      <c r="GE3" s="26"/>
+      <c r="GF3" s="26"/>
+      <c r="GG3" s="26"/>
+      <c r="GH3" s="26"/>
+      <c r="GI3" s="26"/>
+      <c r="GJ3" s="26"/>
+      <c r="GK3" s="26"/>
+      <c r="GL3" s="26"/>
+      <c r="GM3" s="26"/>
+      <c r="GN3" s="26"/>
+      <c r="GO3" s="26"/>
+      <c r="GP3" s="26"/>
+      <c r="GQ3" s="26"/>
+      <c r="GR3" s="26"/>
+      <c r="GS3" s="26"/>
+      <c r="GT3" s="26"/>
+      <c r="GU3" s="26"/>
+      <c r="GV3" s="26"/>
+      <c r="GW3" s="26"/>
+      <c r="GX3" s="26"/>
+      <c r="GY3" s="26"/>
+      <c r="GZ3" s="26"/>
+      <c r="HA3" s="26"/>
+      <c r="HB3" s="26"/>
+      <c r="HC3" s="26"/>
+      <c r="HD3" s="26"/>
+      <c r="HE3" s="26"/>
+      <c r="HF3" s="26"/>
+      <c r="HG3" s="26"/>
+      <c r="HH3" s="26"/>
+      <c r="HI3" s="26"/>
+      <c r="HJ3" s="26"/>
+      <c r="HK3" s="26"/>
+      <c r="HL3" s="26"/>
+      <c r="HM3" s="26"/>
+      <c r="HN3" s="26"/>
+      <c r="HO3" s="26"/>
+      <c r="HP3" s="26"/>
+      <c r="HQ3" s="26"/>
+      <c r="HR3" s="26"/>
+      <c r="HS3" s="26"/>
+      <c r="HT3" s="26"/>
+      <c r="HU3" s="26"/>
+      <c r="HV3" s="26"/>
+      <c r="HW3" s="26"/>
+      <c r="HX3" s="26"/>
+      <c r="HY3" s="26"/>
+      <c r="HZ3" s="26"/>
+      <c r="IA3" s="26"/>
+      <c r="IB3" s="26"/>
+      <c r="IC3" s="26"/>
+      <c r="ID3" s="26"/>
+      <c r="IE3" s="26"/>
+      <c r="IF3" s="26"/>
+      <c r="IG3" s="26"/>
+      <c r="IH3" s="26"/>
+      <c r="II3" s="26"/>
+      <c r="IJ3" s="26"/>
+      <c r="IK3" s="26"/>
+      <c r="IL3" s="26"/>
+      <c r="IM3" s="26"/>
+      <c r="IN3" s="26"/>
+      <c r="IO3" s="26"/>
+      <c r="IP3" s="26"/>
+    </row>
+    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="17"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2167,24 +2306,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24" style="23" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="23" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2192,422 +2328,381 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+    </row>
+    <row r="3" spans="1:250" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
